--- a/Marker_genes.xlsx
+++ b/Marker_genes.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkLocal\RNA_editing_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8DCA38-9A69-4EAD-8960-9CCD43714925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F230A4D-8BBD-49A0-8397-2836A7D33FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{92B97B17-D819-4D25-BA64-4CDFE771D5C8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{92B97B17-D819-4D25-BA64-4CDFE771D5C8}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
-    <sheet name="Used" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="General (4)" sheetId="9" r:id="rId2"/>
+    <sheet name="Biotechne markers (2)" sheetId="10" r:id="rId3"/>
+    <sheet name="General (3)" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,10 +42,104 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={98DE48AD-8247-464B-8234-326C8C3F8CD0}</author>
     <author>tc={0C392B98-76DA-4A74-94F1-368A40971270}</author>
+    <author>tc={C81F9F5A-744F-4193-AFE5-7DFCAFE0D468}</author>
+    <author>tc={BCC579E0-F66C-4C32-B00E-BF1A59619AFC}</author>
   </authors>
   <commentList>
-    <comment ref="V51" authorId="0" shapeId="0" xr:uid="{0C392B98-76DA-4A74-94F1-368A40971270}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{98DE48AD-8247-464B-8234-326C8C3F8CD0}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    For all markers stroma/glia I checked on https://panglaodb.se/index.html to find the exactly match for cell type
+</t>
+      </text>
+    </comment>
+    <comment ref="T51" authorId="1" shapeId="0" xr:uid="{0C392B98-76DA-4A74-94F1-368A40971270}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The protei is RORγt</t>
+      </text>
+    </comment>
+    <comment ref="A74" authorId="2" shapeId="0" xr:uid="{C81F9F5A-744F-4193-AFE5-7DFCAFE0D468}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    https://support.10xgenomics.com/single-cell-gene-expression/software/pipelines/latest/tutorials/neutrophils#annotate</t>
+      </text>
+    </comment>
+    <comment ref="A80" authorId="3" shapeId="0" xr:uid="{BCC579E0-F66C-4C32-B00E-BF1A59619AFC}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fig 1 F
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={291A2E5C-EBB2-4541-A3DB-BDAF048D7B22}</author>
+    <author>tc={F6E0C001-98EE-44B2-958C-639D99DA8F32}</author>
+    <author>tc={FAA8C9CD-EC08-4439-9727-1B51DBAFCB55}</author>
+    <author>tc={5B30738F-8EC3-403E-B583-CA4CBFEB91B1}</author>
+  </authors>
+  <commentList>
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{291A2E5C-EBB2-4541-A3DB-BDAF048D7B22}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    For all markers stroma/glia I checked on https://panglaodb.se/index.html to find the exactly match for cell type
+</t>
+      </text>
+    </comment>
+    <comment ref="K51" authorId="1" shapeId="0" xr:uid="{F6E0C001-98EE-44B2-958C-639D99DA8F32}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The protei is RORγt</t>
+      </text>
+    </comment>
+    <comment ref="A74" authorId="2" shapeId="0" xr:uid="{FAA8C9CD-EC08-4439-9727-1B51DBAFCB55}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    https://support.10xgenomics.com/single-cell-gene-expression/software/pipelines/latest/tutorials/neutrophils#annotate</t>
+      </text>
+    </comment>
+    <comment ref="A80" authorId="3" shapeId="0" xr:uid="{5B30738F-8EC3-403E-B583-CA4CBFEB91B1}">
+      <text>
+        <t xml:space="preserve">[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Fig 1 F
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={97A1A898-1914-4D84-B9E5-8E4227E8D7DA}</author>
+  </authors>
+  <commentList>
+    <comment ref="K51" authorId="0" shapeId="0" xr:uid="{97A1A898-1914-4D84-B9E5-8E4227E8D7DA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,13 +151,13 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={A54B21D5-1605-4888-B833-C6BEE0404C11}</author>
+    <author>tc={98FF9B9D-064C-4576-A15C-AD6C31C320EA}</author>
   </authors>
   <commentList>
-    <comment ref="L51" authorId="0" shapeId="0" xr:uid="{A54B21D5-1605-4888-B833-C6BEE0404C11}">
+    <comment ref="K51" authorId="0" shapeId="0" xr:uid="{98FF9B9D-064C-4576-A15C-AD6C31C320EA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -74,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="432">
   <si>
     <t>Epithelial genes</t>
   </si>
@@ -256,9 +352,6 @@
     <t>ILC3</t>
   </si>
   <si>
-    <t>1 ILCs</t>
-  </si>
-  <si>
     <t>KLRB1</t>
   </si>
   <si>
@@ -271,27 +364,12 @@
     <t>ID2</t>
   </si>
   <si>
-    <t>CCL4</t>
-  </si>
-  <si>
-    <t>CCL3</t>
-  </si>
-  <si>
     <t>GNLY</t>
   </si>
   <si>
     <t>NKG7</t>
   </si>
   <si>
-    <t>CMC1</t>
-  </si>
-  <si>
-    <t>CCL5</t>
-  </si>
-  <si>
-    <t>CCL4L2</t>
-  </si>
-  <si>
     <t>KLRD1</t>
   </si>
   <si>
@@ -301,9 +379,6 @@
     <t>GZMB</t>
   </si>
   <si>
-    <t>DUSP2</t>
-  </si>
-  <si>
     <t>KIT</t>
   </si>
   <si>
@@ -355,60 +430,12 @@
     <t>RORC</t>
   </si>
   <si>
-    <t>GZMK</t>
-  </si>
-  <si>
     <t>CST7</t>
   </si>
   <si>
-    <t>KLRF1</t>
-  </si>
-  <si>
-    <t>CCL3L3</t>
-  </si>
-  <si>
-    <t>XCL1</t>
-  </si>
-  <si>
-    <t>HCST</t>
-  </si>
-  <si>
-    <t>CLIC3</t>
-  </si>
-  <si>
-    <t>XCL2</t>
-  </si>
-  <si>
-    <t>LITAF</t>
-  </si>
-  <si>
-    <t>PIK3R1</t>
-  </si>
-  <si>
     <t>PRF1</t>
   </si>
   <si>
-    <t>CD160</t>
-  </si>
-  <si>
-    <t>KLRC1</t>
-  </si>
-  <si>
-    <t>MAPK1</t>
-  </si>
-  <si>
-    <t>HOPX</t>
-  </si>
-  <si>
-    <t>BRF1</t>
-  </si>
-  <si>
-    <t>PMAIP1</t>
-  </si>
-  <si>
-    <t>TMEM2</t>
-  </si>
-  <si>
     <t>Enterocytes</t>
   </si>
   <si>
@@ -520,9 +547,6 @@
     <t>ILCs - Cytotoxic natural killer</t>
   </si>
   <si>
-    <t>T-BET</t>
-  </si>
-  <si>
     <t>ILC1s</t>
   </si>
   <si>
@@ -697,12 +721,6 @@
     <t>CCL14</t>
   </si>
   <si>
-    <t>TGFB1</t>
-  </si>
-  <si>
-    <t>TSLP</t>
-  </si>
-  <si>
     <t>CXCL12</t>
   </si>
   <si>
@@ -739,12 +757,6 @@
     <t>CD36 endothelial</t>
   </si>
   <si>
-    <t>Lymphatics</t>
-  </si>
-  <si>
-    <t>Smooth muscle</t>
-  </si>
-  <si>
     <t>Fibroblast</t>
   </si>
   <si>
@@ -931,14 +943,536 @@
     <t>SIGLEC8</t>
   </si>
   <si>
-    <t>ILC1/2/3_general</t>
+    <t>CSF3R</t>
+  </si>
+  <si>
+    <t>FPR1</t>
+  </si>
+  <si>
+    <t>NAMPT</t>
+  </si>
+  <si>
+    <t>MNDA</t>
+  </si>
+  <si>
+    <t>CD3E</t>
+  </si>
+  <si>
+    <t>CD4</t>
+  </si>
+  <si>
+    <t>10X</t>
+  </si>
+  <si>
+    <t>NFIL3</t>
+  </si>
+  <si>
+    <t>MBOAT1</t>
+  </si>
+  <si>
+    <t>FBXO9</t>
+  </si>
+  <si>
+    <t>MS4A3</t>
+  </si>
+  <si>
+    <t>MS4A2</t>
+  </si>
+  <si>
+    <t>KIR2DL3</t>
+  </si>
+  <si>
+    <t>MAF</t>
+  </si>
+  <si>
+    <t>PTGDR2</t>
+  </si>
+  <si>
+    <t>HPGDS</t>
+  </si>
+  <si>
+    <t>IL23R</t>
+  </si>
+  <si>
+    <t>IL1R1</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41422-020-00445-x#Sec28</t>
+  </si>
+  <si>
+    <t>HPGD</t>
+  </si>
+  <si>
+    <t>MBOAT2</t>
+  </si>
+  <si>
+    <t>IL9R</t>
+  </si>
+  <si>
+    <t>CD5</t>
+  </si>
+  <si>
+    <t>LEF1</t>
+  </si>
+  <si>
+    <t>CD88</t>
+  </si>
+  <si>
+    <t>CD22</t>
+  </si>
+  <si>
+    <t>Dendridic Cells</t>
+  </si>
+  <si>
+    <t>Endotelial Cells</t>
+  </si>
+  <si>
+    <t>Smooth muscle cells</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Fibroblasts</t>
+  </si>
+  <si>
+    <t>Enteric glia cells</t>
+  </si>
+  <si>
+    <t>https://panglaodb.se/index.html</t>
+  </si>
+  <si>
+    <t>RGS5</t>
+  </si>
+  <si>
+    <t>MYL9</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>https://www.rndsystems.com/</t>
+  </si>
+  <si>
+    <t>CD34+</t>
+  </si>
+  <si>
+    <t>Pax5+</t>
+  </si>
+  <si>
+    <t>IL-7</t>
+  </si>
+  <si>
+    <t>Ra+</t>
+  </si>
+  <si>
+    <t>CD19+</t>
+  </si>
+  <si>
+    <t>C1q</t>
+  </si>
+  <si>
+    <t>R1/CD93+</t>
+  </si>
+  <si>
+    <t>R+</t>
+  </si>
+  <si>
+    <t>R1/CD93–</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>CD38+</t>
+  </si>
+  <si>
+    <t>CD24low</t>
+  </si>
+  <si>
+    <t>CXCR4+</t>
+  </si>
+  <si>
+    <t>CD20/MS4A1+</t>
+  </si>
+  <si>
+    <t>CD24+</t>
+  </si>
+  <si>
+    <t>IL-3</t>
+  </si>
+  <si>
+    <t>CD34–</t>
+  </si>
+  <si>
+    <t>IL-4</t>
+  </si>
+  <si>
+    <t>CD21+</t>
+  </si>
+  <si>
+    <t>CD27–</t>
+  </si>
+  <si>
+    <t>CD40+</t>
+  </si>
+  <si>
+    <t>Ra–</t>
+  </si>
+  <si>
+    <t>CD23/Fce</t>
+  </si>
+  <si>
+    <t>CD5+</t>
+  </si>
+  <si>
+    <t>RII+</t>
+  </si>
+  <si>
+    <t>TACI+</t>
+  </si>
+  <si>
+    <t>CD1c+</t>
+  </si>
+  <si>
+    <t>CD27+</t>
+  </si>
+  <si>
+    <t>FCRL3/FcRH3+</t>
+  </si>
+  <si>
+    <t>CD1d+</t>
+  </si>
+  <si>
+    <t>CD22/Siglec-2+</t>
+  </si>
+  <si>
+    <t>CD38low</t>
+  </si>
+  <si>
+    <t>CXCR5+</t>
+  </si>
+  <si>
+    <t>MHC</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>II+</t>
+  </si>
+  <si>
+    <t>CD83+</t>
+  </si>
+  <si>
+    <t>CD27mid/+</t>
+  </si>
+  <si>
+    <t>Plasmablast</t>
+  </si>
+  <si>
+    <t>BCMA+</t>
+  </si>
+  <si>
+    <t>CD19low</t>
+  </si>
+  <si>
+    <t>CD27high</t>
+  </si>
+  <si>
+    <t>Syndecan-1/CD138–/low</t>
+  </si>
+  <si>
+    <t>BLIMP1+</t>
+  </si>
+  <si>
+    <t>CD20/MS4A1–/low</t>
+  </si>
+  <si>
+    <t>CD38high</t>
+  </si>
+  <si>
+    <t>Syndecan-1/</t>
+  </si>
+  <si>
+    <t>CD138+</t>
+  </si>
+  <si>
+    <t>IL-10+</t>
+  </si>
+  <si>
+    <t>IL-35+</t>
+  </si>
+  <si>
+    <t>TGF-b+</t>
+  </si>
+  <si>
+    <t>Common Lymphoid Progenitor</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Human</t>
+  </si>
+  <si>
+    <t>Markers</t>
+  </si>
+  <si>
+    <t>Pre-Pro B cells</t>
+  </si>
+  <si>
+    <t>B Lymphocyte Progenitor</t>
+  </si>
+  <si>
+    <t>Pro-B cell</t>
+  </si>
+  <si>
+    <t>Pre-B cell</t>
+  </si>
+  <si>
+    <t>C1q R1/CD93+</t>
+  </si>
+  <si>
+    <t>Immature B cell</t>
+  </si>
+  <si>
+    <t>Transitional B cell</t>
+  </si>
+  <si>
+    <t>Marginal Zone B cell</t>
+  </si>
+  <si>
+    <t>Follicular B cell</t>
+  </si>
+  <si>
+    <t>Activated Germinal center B cell</t>
+  </si>
+  <si>
+    <t>Memory B cell</t>
+  </si>
+  <si>
+    <t>Plasma cell</t>
+  </si>
+  <si>
+    <t>MHC class low</t>
+  </si>
+  <si>
+    <t>Regulatory B cell</t>
+  </si>
+  <si>
+    <t>CD117</t>
+  </si>
+  <si>
+    <t>CD10</t>
+  </si>
+  <si>
+    <t>MME</t>
+  </si>
+  <si>
+    <t>MME–</t>
+  </si>
+  <si>
+    <t>Classical DCs 1</t>
+  </si>
+  <si>
+    <t>Classical DCs 2</t>
+  </si>
+  <si>
+    <t>CD141</t>
+  </si>
+  <si>
+    <t>BDCA3</t>
+  </si>
+  <si>
+    <t>BDCA1</t>
+  </si>
+  <si>
+    <t>CD1C</t>
+  </si>
+  <si>
+    <t>Plasmacytoid DCs</t>
+  </si>
+  <si>
+    <t>DLEC</t>
+  </si>
+  <si>
+    <t>BDCA2</t>
+  </si>
+  <si>
+    <t>Inflammatory DCs</t>
+  </si>
+  <si>
+    <t>CD1A</t>
+  </si>
+  <si>
+    <t>CD11C</t>
+  </si>
+  <si>
+    <t>Dendridic cell</t>
+  </si>
+  <si>
+    <t>Early B cell</t>
+  </si>
+  <si>
+    <t>Late B cell</t>
+  </si>
+  <si>
+    <t>T cell</t>
+  </si>
+  <si>
+    <t>Monocytes</t>
+  </si>
+  <si>
+    <t>ILC</t>
+  </si>
+  <si>
+    <t>Basophil</t>
+  </si>
+  <si>
+    <t>Neutrophil</t>
+  </si>
+  <si>
+    <t>THBD</t>
+  </si>
+  <si>
+    <t>CLEC4C</t>
+  </si>
+  <si>
+    <t>IL3RA</t>
+  </si>
+  <si>
+    <t>NT5E</t>
+  </si>
+  <si>
+    <t>ADGRE1</t>
+  </si>
+  <si>
+    <t>CD80</t>
+  </si>
+  <si>
+    <t>CD86</t>
+  </si>
+  <si>
+    <t>CCR5</t>
+  </si>
+  <si>
+    <t>CSF1R</t>
+  </si>
+  <si>
+    <t>CD33</t>
+  </si>
+  <si>
+    <t>IL2RA</t>
+  </si>
+  <si>
+    <t>PTPRC</t>
+  </si>
+  <si>
+    <t>NCAM1</t>
+  </si>
+  <si>
+    <t>CD69</t>
+  </si>
+  <si>
+    <t>IL5RA</t>
+  </si>
+  <si>
+    <t>FCGR2C</t>
+  </si>
+  <si>
+    <t>FCGR2A</t>
+  </si>
+  <si>
+    <t>FCGR2B</t>
+  </si>
+  <si>
+    <t>CD34</t>
+  </si>
+  <si>
+    <t>CR2</t>
+  </si>
+  <si>
+    <t>CD8</t>
+  </si>
+  <si>
+    <t>CEBPA</t>
+  </si>
+  <si>
+    <t>MPO</t>
+  </si>
+  <si>
+    <t>MITF</t>
+  </si>
+  <si>
+    <t>NAAA</t>
+  </si>
+  <si>
+    <t>CX3CR1</t>
+  </si>
+  <si>
+    <t>APOBEC3A</t>
+  </si>
+  <si>
+    <t>DYSF</t>
+  </si>
+  <si>
+    <t>HCK</t>
+  </si>
+  <si>
+    <t>CECAM8</t>
+  </si>
+  <si>
+    <t>TRBC2</t>
+  </si>
+  <si>
+    <t>ID3</t>
+  </si>
+  <si>
+    <t>CDH5</t>
+  </si>
+  <si>
+    <t>FLT1</t>
+  </si>
+  <si>
+    <t>FLT4</t>
+  </si>
+  <si>
+    <t>PECAM1</t>
+  </si>
+  <si>
+    <t>COL6A2</t>
+  </si>
+  <si>
+    <t>VTN</t>
+  </si>
+  <si>
+    <t>PDGFRB</t>
+  </si>
+  <si>
+    <t>ASPN</t>
+  </si>
+  <si>
+    <t>SH3BGR</t>
+  </si>
+  <si>
+    <t>MYLK</t>
+  </si>
+  <si>
+    <t>GFAP</t>
+  </si>
+  <si>
+    <t>PLP1</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/articles/10.3389/fncel.2022.895871/full</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -966,13 +1500,62 @@
       <name val="Georgia"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF859900"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1006,12 +1589,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1033,11 +1640,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1352,7 +1958,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1360,15 +1966,77 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="V51" dT="2022-10-10T09:42:32.68" personId="{756CAE0B-9B03-4BAC-A076-C490CFE9C63C}" id="{0C392B98-76DA-4A74-94F1-368A40971270}">
+  <threadedComment ref="V1" dT="2022-11-07T16:11:20.68" personId="{756CAE0B-9B03-4BAC-A076-C490CFE9C63C}" id="{98DE48AD-8247-464B-8234-326C8C3F8CD0}">
+    <text xml:space="preserve">For all markers stroma/glia I checked on https://panglaodb.se/index.html to find the exactly match for cell type
+</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>4039303340</xltc2:checksum>
+        <xltc2:hyperlink startIndex="41" length="31" url="https://panglaodb.se/index.html"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+  <threadedComment ref="T51" dT="2022-10-10T09:42:32.68" personId="{756CAE0B-9B03-4BAC-A076-C490CFE9C63C}" id="{0C392B98-76DA-4A74-94F1-368A40971270}">
     <text>The protei is RORγt</text>
+  </threadedComment>
+  <threadedComment ref="A74" dT="2022-10-24T07:58:44.00" personId="{756CAE0B-9B03-4BAC-A076-C490CFE9C63C}" id="{C81F9F5A-744F-4193-AFE5-7DFCAFE0D468}">
+    <text>https://support.10xgenomics.com/single-cell-gene-expression/software/pipelines/latest/tutorials/neutrophils#annotate</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>526484609</xltc2:checksum>
+        <xltc2:hyperlink startIndex="0" length="116" url="https://support.10xgenomics.com/single-cell-gene-expression/software/pipelines/latest/tutorials/neutrophils#annotate"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+  <threadedComment ref="A80" dT="2022-10-24T09:19:13.03" personId="{756CAE0B-9B03-4BAC-A076-C490CFE9C63C}" id="{BCC579E0-F66C-4C32-B00E-BF1A59619AFC}">
+    <text xml:space="preserve">Fig 1 F
+</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="L51" dT="2022-10-10T09:42:32.68" personId="{756CAE0B-9B03-4BAC-A076-C490CFE9C63C}" id="{A54B21D5-1605-4888-B833-C6BEE0404C11}">
+  <threadedComment ref="M1" dT="2022-11-07T16:11:20.68" personId="{756CAE0B-9B03-4BAC-A076-C490CFE9C63C}" id="{291A2E5C-EBB2-4541-A3DB-BDAF048D7B22}">
+    <text xml:space="preserve">For all markers stroma/glia I checked on https://panglaodb.se/index.html to find the exactly match for cell type
+</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>4039303340</xltc2:checksum>
+        <xltc2:hyperlink startIndex="41" length="31" url="https://panglaodb.se/index.html"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+  <threadedComment ref="K51" dT="2022-10-10T09:42:32.68" personId="{756CAE0B-9B03-4BAC-A076-C490CFE9C63C}" id="{F6E0C001-98EE-44B2-958C-639D99DA8F32}">
+    <text>The protei is RORγt</text>
+  </threadedComment>
+  <threadedComment ref="A74" dT="2022-10-24T07:58:44.00" personId="{756CAE0B-9B03-4BAC-A076-C490CFE9C63C}" id="{FAA8C9CD-EC08-4439-9727-1B51DBAFCB55}">
+    <text>https://support.10xgenomics.com/single-cell-gene-expression/software/pipelines/latest/tutorials/neutrophils#annotate</text>
+    <extLst>
+      <x:ext xmlns:xltc2="http://schemas.microsoft.com/office/spreadsheetml/2020/threadedcomments2" uri="{F7C98A9C-CBB3-438F-8F68-D28B6AF4A901}">
+        <xltc2:checksum>526484609</xltc2:checksum>
+        <xltc2:hyperlink startIndex="0" length="116" url="https://support.10xgenomics.com/single-cell-gene-expression/software/pipelines/latest/tutorials/neutrophils#annotate"/>
+      </x:ext>
+    </extLst>
+  </threadedComment>
+  <threadedComment ref="A80" dT="2022-10-24T09:19:13.03" personId="{756CAE0B-9B03-4BAC-A076-C490CFE9C63C}" id="{5B30738F-8EC3-403E-B583-CA4CBFEB91B1}">
+    <text xml:space="preserve">Fig 1 F
+</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K51" dT="2022-10-10T09:42:32.68" personId="{756CAE0B-9B03-4BAC-A076-C490CFE9C63C}" id="{97A1A898-1914-4D84-B9E5-8E4227E8D7DA}">
+    <text>The protei is RORγt</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="K51" dT="2022-10-10T09:42:32.68" personId="{756CAE0B-9B03-4BAC-A076-C490CFE9C63C}" id="{98FF9B9D-064C-4576-A15C-AD6C31C320EA}">
     <text>The protei is RORγt</text>
   </threadedComment>
 </ThreadedComments>
@@ -1376,12 +2044,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30189183-1598-4089-A927-A4D561C45558}">
-  <dimension ref="A1:AS73"/>
+  <dimension ref="A1:AN111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="580" activePane="bottomLeft"/>
-      <selection activeCell="S1" sqref="S1:S1048576"/>
-      <selection pane="bottomLeft" activeCell="AH5" sqref="AH5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="585" topLeftCell="A93" activePane="bottomLeft"/>
+      <selection activeCell="Z1" sqref="Z1"/>
+      <selection pane="bottomLeft" activeCell="F110" sqref="F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1391,44 +2059,38 @@
     <col min="11" max="11" width="14.6328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="22" customWidth="1"/>
-    <col min="18" max="18" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="20.1796875" customWidth="1"/>
-    <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="22" customWidth="1"/>
+    <col min="17" max="17" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="K1" t="s">
         <v>44</v>
@@ -1440,71 +2102,56 @@
         <v>49</v>
       </c>
       <c r="N1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="O1" t="s">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="P1" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>226</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="S1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="R1" t="s">
+        <v>125</v>
+      </c>
+      <c r="S1" t="s">
+        <v>126</v>
+      </c>
+      <c r="T1" t="s">
+        <v>59</v>
+      </c>
+      <c r="U1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="Y1" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="T1" t="s">
-        <v>149</v>
-      </c>
-      <c r="U1" t="s">
-        <v>150</v>
-      </c>
-      <c r="V1" t="s">
-        <v>59</v>
-      </c>
-      <c r="W1" t="s">
-        <v>60</v>
-      </c>
-      <c r="X1" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>220</v>
+      <c r="Z1" s="9" t="s">
+        <v>288</v>
       </c>
       <c r="AA1" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="AB1" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="AC1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
         <v>43</v>
       </c>
       <c r="B2" t="s">
@@ -1516,1096 +2163,951 @@
       <c r="M2" t="s">
         <v>53</v>
       </c>
-      <c r="N2" t="s">
-        <v>159</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>238</v>
-      </c>
-      <c r="S2" t="s">
-        <v>61</v>
+      <c r="U2" t="s">
+        <v>156</v>
       </c>
       <c r="V2" t="s">
-        <v>61</v>
-      </c>
-      <c r="W2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" t="s">
-        <v>180</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>194</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>206</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A3" s="5"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
       <c r="B3" t="s">
         <v>2</v>
       </c>
       <c r="L3" t="s">
         <v>51</v>
       </c>
-      <c r="M3" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" t="s">
-        <v>160</v>
-      </c>
-      <c r="O3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>239</v>
-      </c>
-      <c r="X3" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>185</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>196</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A4" s="5"/>
+      <c r="U3" t="s">
+        <v>157</v>
+      </c>
+      <c r="V3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="L4" t="s">
         <v>52</v>
       </c>
-      <c r="M4" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" t="s">
-        <v>161</v>
-      </c>
-      <c r="O4" t="s">
-        <v>56</v>
-      </c>
-      <c r="P4" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>240</v>
-      </c>
-      <c r="X4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>186</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>207</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>209</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A5" s="5"/>
+      <c r="U4" t="s">
+        <v>69</v>
+      </c>
+      <c r="W4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="M5" t="s">
-        <v>170</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="W5" t="s">
         <v>163</v>
       </c>
-      <c r="P5" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>200</v>
-      </c>
-      <c r="V5" t="s">
-        <v>62</v>
-      </c>
-      <c r="W5" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>187</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>210</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A6" s="5"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="M6" t="s">
-        <v>171</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="X6" t="s">
         <v>164</v>
       </c>
-      <c r="P6" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>241</v>
-      </c>
-      <c r="V6" t="s">
-        <v>63</v>
-      </c>
-      <c r="W6" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>188</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A7" s="5"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="M7" t="s">
-        <v>172</v>
-      </c>
-      <c r="N7" t="s">
+        <v>282</v>
+      </c>
+      <c r="X7" t="s">
         <v>165</v>
       </c>
-      <c r="P7" t="s">
-        <v>232</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>242</v>
-      </c>
-      <c r="V7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>198</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>7</v>
       </c>
       <c r="M8" t="s">
-        <v>173</v>
-      </c>
-      <c r="N8" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y8" t="s">
         <v>166</v>
       </c>
-      <c r="P8" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>243</v>
-      </c>
-      <c r="V8" t="s">
-        <v>76</v>
-      </c>
-      <c r="W8" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="M9" t="s">
-        <v>174</v>
-      </c>
-      <c r="N9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z9" t="s">
         <v>167</v>
       </c>
-      <c r="P9" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>244</v>
-      </c>
-      <c r="V9" t="s">
-        <v>77</v>
-      </c>
-      <c r="W9" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>197</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="M10" t="s">
-        <v>175</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="Z10" t="s">
         <v>168</v>
       </c>
-      <c r="P10" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>245</v>
-      </c>
-      <c r="V10" t="s">
-        <v>78</v>
-      </c>
-      <c r="W10" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A11" s="5"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="M11" t="s">
-        <v>176</v>
-      </c>
-      <c r="N11" t="s">
-        <v>169</v>
-      </c>
-      <c r="P11" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>246</v>
-      </c>
-      <c r="V11" t="s">
-        <v>79</v>
-      </c>
-      <c r="W11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12" s="19"/>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="N12" t="s">
-        <v>178</v>
-      </c>
-      <c r="P12" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>247</v>
-      </c>
-      <c r="V12" t="s">
-        <v>80</v>
-      </c>
-      <c r="W12" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13" s="19"/>
       <c r="B13" t="s">
         <v>12</v>
       </c>
       <c r="N13" t="s">
-        <v>179</v>
-      </c>
-      <c r="P13" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>248</v>
-      </c>
-      <c r="V13" t="s">
-        <v>81</v>
-      </c>
-      <c r="W13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="P14" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>249</v>
-      </c>
-      <c r="V14" t="s">
-        <v>82</v>
-      </c>
-      <c r="W14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
+      <c r="O14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="P15" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>250</v>
-      </c>
-      <c r="V15" t="s">
-        <v>83</v>
-      </c>
-      <c r="W15" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
+      <c r="O15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16" s="19"/>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="P16" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>251</v>
-      </c>
-      <c r="V16" t="s">
-        <v>84</v>
-      </c>
-      <c r="W16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
+      <c r="O16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="19"/>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" t="s">
-        <v>252</v>
-      </c>
-      <c r="V17" t="s">
-        <v>85</v>
-      </c>
-      <c r="W17" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="19"/>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" t="s">
-        <v>253</v>
-      </c>
-      <c r="V18" t="s">
-        <v>86</v>
-      </c>
-      <c r="W18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="19"/>
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="Q19" t="s">
-        <v>254</v>
-      </c>
-      <c r="V19" t="s">
-        <v>87</v>
-      </c>
-      <c r="W19" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="19"/>
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="Q20" t="s">
-        <v>255</v>
-      </c>
-      <c r="V20" t="s">
-        <v>88</v>
-      </c>
-      <c r="W20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="19"/>
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="Q21" t="s">
-        <v>256</v>
-      </c>
-      <c r="V21" t="s">
-        <v>89</v>
-      </c>
-      <c r="W21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="19"/>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="Q22" t="s">
-        <v>257</v>
-      </c>
-      <c r="V22" t="s">
-        <v>90</v>
-      </c>
-      <c r="W22" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="19"/>
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="Q23" t="s">
-        <v>258</v>
-      </c>
-      <c r="V23" t="s">
-        <v>91</v>
-      </c>
-      <c r="W23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="19"/>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="Q24" t="s">
-        <v>259</v>
-      </c>
-      <c r="V24" t="s">
-        <v>92</v>
-      </c>
-      <c r="W24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="19"/>
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="Q25" t="s">
-        <v>260</v>
-      </c>
-      <c r="W25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="19"/>
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="Q26" t="s">
-        <v>261</v>
-      </c>
-      <c r="W26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="19"/>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="Q27" t="s">
-        <v>262</v>
-      </c>
-      <c r="W27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="19"/>
       <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="Q28" t="s">
-        <v>263</v>
-      </c>
-      <c r="W28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="19"/>
       <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="Q29" t="s">
-        <v>264</v>
-      </c>
-      <c r="W29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="19"/>
       <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="Q30" t="s">
-        <v>265</v>
-      </c>
-      <c r="W30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="19"/>
       <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="W31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="19"/>
       <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="W32" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
+    </row>
+    <row r="33" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A33" s="19"/>
       <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="W33" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
+    </row>
+    <row r="34" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A34" s="19"/>
       <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="W34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
+    </row>
+    <row r="35" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A35" s="19"/>
       <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="W35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A36" s="19"/>
       <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="W36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A37" s="19"/>
       <c r="B37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
+    <row r="38" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A38" s="19"/>
       <c r="B38" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A39" s="19"/>
       <c r="B39" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A40" s="19"/>
       <c r="B40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A41" s="19"/>
       <c r="B41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
+    <row r="42" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A42" s="19"/>
       <c r="B42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A43" s="19"/>
       <c r="B43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
-        <v>144</v>
+    <row r="44" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="20" t="s">
+        <v>121</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>131</v>
+        <v>108</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="S44"/>
-      <c r="AS44"/>
-    </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="AN44"/>
+    </row>
+    <row r="45" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A45" s="19"/>
       <c r="C45" t="s">
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>102</v>
       </c>
       <c r="F45" t="s">
         <v>23</v>
       </c>
       <c r="G45" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="H45" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="I45" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="J45" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A46" s="19"/>
       <c r="C46" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
         <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>126</v>
+        <v>103</v>
       </c>
       <c r="F46" t="s">
         <v>22</v>
       </c>
       <c r="G46" t="s">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="H46" t="s">
-        <v>133</v>
+        <v>110</v>
       </c>
       <c r="I46" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="J46" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A47" s="5"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A47" s="19"/>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="D47" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="E47" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H47" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
       <c r="I47" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="J47" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A48" s="19"/>
       <c r="D48" t="s">
         <v>24</v>
       </c>
       <c r="H48" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="I48" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="7"/>
+    <row r="49" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="21"/>
       <c r="D49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="S49"/>
-      <c r="AS49"/>
-    </row>
-    <row r="50" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="S50"/>
-      <c r="AS50"/>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A51" s="8" t="s">
-        <v>145</v>
+      <c r="AN49"/>
+    </row>
+    <row r="50" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S50" t="s">
+        <v>129</v>
+      </c>
+      <c r="T50" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN50"/>
+    </row>
+    <row r="51" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A51" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>123</v>
       </c>
       <c r="R51" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="S51" t="s">
-        <v>153</v>
-      </c>
-      <c r="T51" t="s">
-        <v>158</v>
-      </c>
-      <c r="U51" t="s">
-        <v>151</v>
-      </c>
-      <c r="V51" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A52" s="5"/>
-      <c r="R52" t="s">
-        <v>148</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="U52" t="s">
-        <v>154</v>
-      </c>
-      <c r="V52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A53" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A52" s="19"/>
+      <c r="Q52" t="s">
+        <v>134</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="S52" t="s">
+        <v>130</v>
+      </c>
+      <c r="T52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A53" s="19"/>
+      <c r="R53" t="s">
+        <v>129</v>
+      </c>
+      <c r="S53" t="s">
+        <v>131</v>
+      </c>
       <c r="T53" t="s">
-        <v>153</v>
-      </c>
-      <c r="U53" t="s">
-        <v>155</v>
-      </c>
-      <c r="V53" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A54" s="5"/>
-      <c r="U54" t="s">
-        <v>153</v>
-      </c>
-      <c r="V54" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A55" s="5"/>
-    </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A56" s="5"/>
-    </row>
-    <row r="57" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="7"/>
-      <c r="S57"/>
-      <c r="AS57"/>
-    </row>
-    <row r="58" spans="1:45" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="9" t="s">
-        <v>193</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A54" s="19"/>
+    </row>
+    <row r="55" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A55" s="19"/>
+    </row>
+    <row r="56" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A56" s="19"/>
+    </row>
+    <row r="57" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="21"/>
+      <c r="AN57"/>
+    </row>
+    <row r="58" spans="1:40" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="K58" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="S58"/>
-      <c r="AS58"/>
-    </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A59" s="10"/>
+      <c r="AN58"/>
+    </row>
+    <row r="59" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A59" s="24"/>
       <c r="K59" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:45" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="11"/>
+    <row r="60" spans="1:40" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="25"/>
       <c r="K60" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="S60"/>
-      <c r="AS60"/>
-    </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A61" s="12" t="s">
-        <v>266</v>
+      <c r="AN60"/>
+    </row>
+    <row r="61" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A61" s="17" t="s">
+        <v>238</v>
       </c>
       <c r="L61" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="M61" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="N61" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="O61" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="P61" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>273</v>
-      </c>
-      <c r="X61" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF61" t="s">
-        <v>239</v>
-      </c>
-      <c r="AG61" t="s">
-        <v>283</v>
-      </c>
-      <c r="AH61" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A62" s="13"/>
+        <v>245</v>
+      </c>
+      <c r="U61" t="s">
+        <v>246</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB61" t="s">
+        <v>255</v>
+      </c>
+      <c r="AC61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A62" s="16"/>
       <c r="L62" t="s">
         <v>50</v>
       </c>
       <c r="N62" t="s">
-        <v>268</v>
+        <v>240</v>
+      </c>
+      <c r="O62" t="s">
+        <v>54</v>
       </c>
       <c r="P62" t="s">
         <v>54</v>
       </c>
-      <c r="Q62" t="s">
-        <v>54</v>
-      </c>
-      <c r="X62" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF62" t="s">
+      <c r="U62" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>252</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A63" s="16"/>
+      <c r="O63" t="s">
+        <v>243</v>
+      </c>
+      <c r="P63" t="s">
+        <v>243</v>
+      </c>
+      <c r="U63" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:40" x14ac:dyDescent="0.35">
+      <c r="A64" s="16"/>
+      <c r="O64" t="s">
+        <v>244</v>
+      </c>
+      <c r="P64" t="s">
+        <v>244</v>
+      </c>
+      <c r="U64" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA64" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A65" s="16"/>
+      <c r="U65" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A66" s="16"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A67" s="16"/>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A68" s="16"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A69" s="16"/>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A70" s="16"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A71" s="16"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A72" s="16"/>
+    </row>
+    <row r="73" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="18"/>
+    </row>
+    <row r="74" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="L74" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M74" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="AA74" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A75" s="16"/>
+      <c r="L75" t="s">
+        <v>261</v>
+      </c>
+      <c r="M75" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="A76" s="16"/>
+      <c r="L76" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA77" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="AA78" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="R80" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="S80" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="T80" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A81" s="16"/>
+      <c r="Q81" t="s">
+        <v>134</v>
+      </c>
+      <c r="R81" t="s">
+        <v>261</v>
+      </c>
+      <c r="S81" t="s">
+        <v>270</v>
+      </c>
+      <c r="T81" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A82" s="16"/>
+      <c r="Q82" t="s">
+        <v>269</v>
+      </c>
+      <c r="R82" t="s">
+        <v>50</v>
+      </c>
+      <c r="S82" t="s">
+        <v>271</v>
+      </c>
+      <c r="T82" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A83" s="16"/>
+      <c r="Q83" t="s">
+        <v>67</v>
+      </c>
+      <c r="R83" t="s">
+        <v>262</v>
+      </c>
+      <c r="S83" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A84" s="16"/>
+      <c r="Q84" t="s">
+        <v>87</v>
+      </c>
+      <c r="R84" t="s">
+        <v>279</v>
+      </c>
+      <c r="S84" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A85" s="16"/>
+      <c r="Q85" t="s">
+        <v>64</v>
+      </c>
+      <c r="R85" t="s">
+        <v>137</v>
+      </c>
+      <c r="S85" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A86" s="16"/>
+      <c r="Q86" t="s">
+        <v>66</v>
+      </c>
+      <c r="R86" t="s">
         <v>280</v>
       </c>
-      <c r="AG62" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A63" s="13"/>
-      <c r="P63" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>271</v>
-      </c>
-      <c r="X63" t="s">
-        <v>180</v>
-      </c>
-      <c r="AF63" t="s">
+      <c r="S86" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A87" s="16"/>
+      <c r="S87" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="18"/>
+      <c r="Q88" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="R88" s="3" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.35">
-      <c r="A64" s="13"/>
-      <c r="P64" t="s">
+      <c r="S88" t="s">
         <v>272</v>
       </c>
-      <c r="Q64" t="s">
-        <v>272</v>
-      </c>
-      <c r="X64" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF64" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A65" s="13"/>
-      <c r="X65" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A66" s="13"/>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A67" s="13"/>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A68" s="13"/>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A69" s="13"/>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A70" s="13"/>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A71" s="13"/>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A72" s="13"/>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A73" s="13"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+    </row>
+    <row r="90" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AC90" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AC91" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AC92" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AC93" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="AC94" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="P95" t="s">
+        <v>241</v>
+      </c>
+      <c r="V95" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="X95" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y95" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="Z95" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A96" s="16"/>
+      <c r="O96" t="s">
+        <v>56</v>
+      </c>
+      <c r="V96" t="s">
+        <v>419</v>
+      </c>
+      <c r="X96" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y96" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A97" s="16"/>
+      <c r="V97" t="s">
+        <v>420</v>
+      </c>
+      <c r="X97" t="s">
+        <v>425</v>
+      </c>
+      <c r="Y97" s="5" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A98" s="16"/>
+      <c r="V98" t="s">
+        <v>421</v>
+      </c>
+      <c r="X98" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y98" s="26" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A99" s="16"/>
+      <c r="V99" t="s">
+        <v>422</v>
+      </c>
+      <c r="Y99" s="26" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A100" s="16"/>
+    </row>
+    <row r="101" spans="1:26" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="16"/>
+    </row>
+    <row r="102" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A102" s="16"/>
+    </row>
+    <row r="103" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A103" s="16"/>
+    </row>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A104" s="16"/>
+    </row>
+    <row r="105" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A105" s="16"/>
+    </row>
+    <row r="106" spans="1:26" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="16"/>
+    </row>
+    <row r="107" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A107" s="16"/>
+    </row>
+    <row r="108" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A108" s="28" t="s">
+        <v>431</v>
+      </c>
+      <c r="Z108" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A109" s="28"/>
+    </row>
+    <row r="110" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A110" s="28"/>
+    </row>
+    <row r="111" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A111" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
+    <mergeCell ref="A108:A111"/>
+    <mergeCell ref="A95:A107"/>
+    <mergeCell ref="A74:A76"/>
+    <mergeCell ref="A80:A88"/>
     <mergeCell ref="A2:A43"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="A51:A57"/>
@@ -2615,19 +3117,1082 @@
   <hyperlinks>
     <hyperlink ref="A44" r:id="rId1" xr:uid="{1AD56168-8B2B-4A2F-883B-AEC3FB21688D}"/>
     <hyperlink ref="A51" r:id="rId2" xr:uid="{EBF38D5C-5B7C-4070-B77B-1D8B445485AA}"/>
+    <hyperlink ref="A80" r:id="rId3" location="Sec28" xr:uid="{3C4941A7-67E0-4AED-911D-57FD00DB3CB8}"/>
+    <hyperlink ref="A95" r:id="rId4" xr:uid="{C6563E59-C6B6-4745-B146-A5975C397A4A}"/>
+    <hyperlink ref="A108" r:id="rId5" xr:uid="{13B53AC3-12FA-4671-A4D8-C9C47D82771C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33E29470-512A-4EB2-8649-72907F96EA25}">
-  <dimension ref="A1:S65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5618D1CF-FB39-481B-B893-CBAFB86B0FE0}">
+  <dimension ref="A1:AE107"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="585" activePane="bottomLeft"/>
+      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="R1" t="s">
+        <v>249</v>
+      </c>
+      <c r="S1" t="s">
+        <v>250</v>
+      </c>
+      <c r="T1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A2" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A3" s="19"/>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A4" s="19"/>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A5" s="19"/>
+      <c r="N5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A6" s="19"/>
+      <c r="O6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A7" s="19"/>
+      <c r="D7" t="s">
+        <v>282</v>
+      </c>
+      <c r="O7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A8" s="19"/>
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A9" s="19"/>
+      <c r="D9" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A10" s="19"/>
+      <c r="Q10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A11" s="19"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A12" s="19"/>
+      <c r="E12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A13" s="19"/>
+      <c r="E13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A14" s="19"/>
+      <c r="F14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A15" s="19"/>
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A16" s="19"/>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="19"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="19"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="19"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="19"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="19"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="19"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="19"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="19"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="19"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="19"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="19"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="19"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="19"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A33" s="19"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A34" s="19"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A35" s="19"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A36" s="19"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A37" s="19"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A38" s="19"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A39" s="19"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A40" s="19"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A41" s="19"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A42" s="19"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A43" s="19"/>
+    </row>
+    <row r="44" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE44"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A45" s="19"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A46" s="19"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A47" s="19"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A48" s="19"/>
+    </row>
+    <row r="49" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="21"/>
+      <c r="AE49"/>
+    </row>
+    <row r="50" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J50" t="s">
+        <v>129</v>
+      </c>
+      <c r="K50" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE50"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A51" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H51" t="s">
+        <v>123</v>
+      </c>
+      <c r="I51" t="s">
+        <v>134</v>
+      </c>
+      <c r="J51" t="s">
+        <v>127</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A52" s="19"/>
+      <c r="H52" t="s">
+        <v>134</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J52" t="s">
+        <v>130</v>
+      </c>
+      <c r="K52" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A53" s="19"/>
+      <c r="I53" t="s">
+        <v>129</v>
+      </c>
+      <c r="J53" t="s">
+        <v>131</v>
+      </c>
+      <c r="K53" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A54" s="19"/>
+    </row>
+    <row r="55" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A55" s="19"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A56" s="19"/>
+    </row>
+    <row r="57" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="21"/>
+      <c r="AE57"/>
+    </row>
+    <row r="58" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE58"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A59" s="24"/>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="25"/>
+      <c r="B60" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE60"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A61" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="D61" t="s">
+        <v>146</v>
+      </c>
+      <c r="E61" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" t="s">
+        <v>242</v>
+      </c>
+      <c r="G61" t="s">
+        <v>245</v>
+      </c>
+      <c r="L61" t="s">
+        <v>246</v>
+      </c>
+      <c r="R61" t="s">
+        <v>211</v>
+      </c>
+      <c r="S61" t="s">
+        <v>255</v>
+      </c>
+      <c r="T61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A62" s="16"/>
+      <c r="E62" t="s">
+        <v>240</v>
+      </c>
+      <c r="L62" t="s">
+        <v>69</v>
+      </c>
+      <c r="R62" t="s">
+        <v>252</v>
+      </c>
+      <c r="S62" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A63" s="16"/>
+      <c r="L63" t="s">
+        <v>156</v>
+      </c>
+      <c r="R63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A64" s="16"/>
+      <c r="L64" t="s">
+        <v>247</v>
+      </c>
+      <c r="R64" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A65" s="16"/>
+      <c r="L65" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A66" s="16"/>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A67" s="16"/>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A68" s="16"/>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A69" s="16"/>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A70" s="16"/>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A71" s="16"/>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A72" s="16"/>
+    </row>
+    <row r="73" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="18"/>
+    </row>
+    <row r="74" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="R74" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A75" s="16"/>
+      <c r="D75" t="s">
+        <v>149</v>
+      </c>
+      <c r="R75" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A76" s="16"/>
+      <c r="R76" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R77" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R78" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="1:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A81" s="16"/>
+      <c r="H81" t="s">
+        <v>134</v>
+      </c>
+      <c r="J81" t="s">
+        <v>270</v>
+      </c>
+      <c r="K81" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A82" s="16"/>
+      <c r="H82" t="s">
+        <v>269</v>
+      </c>
+      <c r="J82" t="s">
+        <v>271</v>
+      </c>
+      <c r="K82" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A83" s="16"/>
+      <c r="H83" t="s">
+        <v>67</v>
+      </c>
+      <c r="J83" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A84" s="16"/>
+      <c r="H84" t="s">
+        <v>87</v>
+      </c>
+      <c r="I84" t="s">
+        <v>279</v>
+      </c>
+      <c r="J84" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A85" s="16"/>
+      <c r="H85" t="s">
+        <v>64</v>
+      </c>
+      <c r="I85" t="s">
+        <v>137</v>
+      </c>
+      <c r="J85" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A86" s="16"/>
+      <c r="H86" t="s">
+        <v>66</v>
+      </c>
+      <c r="I86" t="s">
+        <v>280</v>
+      </c>
+      <c r="J86" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A87" s="16"/>
+      <c r="J87" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="18"/>
+      <c r="H88" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J88" t="s">
+        <v>272</v>
+      </c>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T90" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T91" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T92" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T93" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="T94" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="G95" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A96" s="16"/>
+      <c r="F96" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="16"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="16"/>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="16"/>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="16"/>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="16"/>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="16"/>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="16"/>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="16"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="16"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="16"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A80:A88"/>
+    <mergeCell ref="A95:A107"/>
+    <mergeCell ref="A2:A43"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A61:A73"/>
+    <mergeCell ref="A74:A76"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A44" r:id="rId1" xr:uid="{1353AE64-3C4C-4AA5-BD21-9E29C8CB2C4F}"/>
+    <hyperlink ref="A51" r:id="rId2" xr:uid="{A9F4AD12-1396-471F-AABA-A9D0F6A493C3}"/>
+    <hyperlink ref="A80" r:id="rId3" location="Sec28" xr:uid="{91ABB101-C30B-4EC9-9726-C88256634E53}"/>
+    <hyperlink ref="A95" r:id="rId4" xr:uid="{5177F237-2629-44DC-BB92-358ECCEBD417}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BB21509-F075-4FFD-B38E-15200176C2AC}">
+  <dimension ref="A1:AB88"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="585" activePane="bottomLeft"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G1" t="s">
+        <v>384</v>
+      </c>
+      <c r="H1" t="s">
+        <v>385</v>
+      </c>
+      <c r="I1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F2" t="s">
+        <v>391</v>
+      </c>
+      <c r="G2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I2" t="s">
+        <v>391</v>
+      </c>
+      <c r="J2" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>405</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G3" t="s">
+        <v>398</v>
+      </c>
+      <c r="H3" t="s">
+        <v>400</v>
+      </c>
+      <c r="I3" t="s">
+        <v>401</v>
+      </c>
+      <c r="J3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>406</v>
+      </c>
+      <c r="C4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" t="s">
+        <v>255</v>
+      </c>
+      <c r="J4" t="s">
+        <v>398</v>
+      </c>
+      <c r="K4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H5" t="s">
+        <v>408</v>
+      </c>
+      <c r="I5" t="s">
+        <v>255</v>
+      </c>
+      <c r="J5" t="s">
+        <v>410</v>
+      </c>
+      <c r="K5" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" t="s">
+        <v>390</v>
+      </c>
+      <c r="E6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F6" t="s">
+        <v>395</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>378</v>
+      </c>
+      <c r="I6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D7" t="s">
+        <v>407</v>
+      </c>
+      <c r="E7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I7" t="s">
+        <v>254</v>
+      </c>
+      <c r="K7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D8" t="s">
+        <v>252</v>
+      </c>
+      <c r="E8" t="s">
+        <v>411</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="I8" t="s">
+        <v>271</v>
+      </c>
+      <c r="K8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" t="s">
+        <v>412</v>
+      </c>
+      <c r="I9" t="s">
+        <v>253</v>
+      </c>
+      <c r="K9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s">
+        <v>395</v>
+      </c>
+      <c r="F10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D11" t="s">
+        <v>417</v>
+      </c>
+      <c r="E11" t="s">
+        <v>252</v>
+      </c>
+      <c r="F11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>211</v>
+      </c>
+      <c r="F12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="28:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AB44"/>
+    </row>
+    <row r="49" spans="9:28" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AB49"/>
+    </row>
+    <row r="50" spans="9:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="AB50"/>
+    </row>
+    <row r="51" spans="9:28" x14ac:dyDescent="0.35">
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="9:28" x14ac:dyDescent="0.35">
+      <c r="I52" s="2"/>
+    </row>
+    <row r="57" spans="9:28" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AB57"/>
+    </row>
+    <row r="58" spans="9:28" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AB58"/>
+    </row>
+    <row r="60" spans="9:28" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AB60"/>
+    </row>
+    <row r="73" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="79" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="88" spans="10:12" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J88"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECFFBC1-0584-47E3-B1A8-CBC4D552F2C9}">
+  <dimension ref="A1:AE93"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="585" topLeftCell="A55" activePane="bottomLeft"/>
+      <selection activeCell="P4" sqref="P1:Q1048576"/>
+      <selection pane="bottomLeft" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2638,17 +4203,13 @@
     <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1796875" customWidth="1"/>
-    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.08984375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -2659,55 +4220,58 @@
         <v>49</v>
       </c>
       <c r="D1" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="G1" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>285</v>
+        <v>124</v>
+      </c>
+      <c r="I1" t="s">
+        <v>125</v>
       </c>
       <c r="J1" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="K1" t="s">
-        <v>150</v>
+        <v>59</v>
       </c>
       <c r="L1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="M1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N1" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="O1" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="P1" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="Q1" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="R1" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="S1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+        <v>250</v>
+      </c>
+      <c r="T1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>50</v>
       </c>
@@ -2715,46 +4279,46 @@
         <v>53</v>
       </c>
       <c r="D2" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
         <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="G2" t="s">
-        <v>238</v>
-      </c>
-      <c r="H2" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
       <c r="I2" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="J2" t="s">
+        <v>60</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" t="s">
+        <v>156</v>
       </c>
       <c r="M2" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="N2" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="O2" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="P2" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
       <c r="Q2" t="s">
-        <v>208</v>
-      </c>
-      <c r="R2" t="s">
-        <v>196</v>
-      </c>
-      <c r="S2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>51</v>
       </c>
@@ -2762,40 +4326,37 @@
         <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
         <v>55</v>
       </c>
       <c r="F3" t="s">
-        <v>228</v>
+        <v>200</v>
       </c>
       <c r="G3" t="s">
-        <v>239</v>
+        <v>211</v>
+      </c>
+      <c r="L3" t="s">
+        <v>157</v>
       </c>
       <c r="M3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N3" t="s">
+        <v>179</v>
+      </c>
+      <c r="O3" t="s">
         <v>181</v>
       </c>
-      <c r="N3" t="s">
-        <v>203</v>
-      </c>
-      <c r="O3" t="s">
-        <v>205</v>
-      </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>132</v>
       </c>
       <c r="Q3" t="s">
-        <v>196</v>
-      </c>
-      <c r="R3" t="s">
-        <v>156</v>
-      </c>
-      <c r="S3" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>52</v>
       </c>
@@ -2803,356 +4364,482 @@
         <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
         <v>56</v>
       </c>
       <c r="F4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G4" t="s">
+        <v>212</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
+        <v>162</v>
+      </c>
+      <c r="N4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O4" t="s">
+        <v>182</v>
+      </c>
+      <c r="P4" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" t="s">
+        <v>163</v>
+      </c>
+      <c r="O5" t="s">
+        <v>187</v>
+      </c>
+      <c r="P5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G6" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" t="s">
+        <v>164</v>
+      </c>
+      <c r="P6" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F8" t="s">
+        <v>205</v>
+      </c>
+      <c r="G8" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" t="s">
+        <v>166</v>
+      </c>
+      <c r="P8" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" t="s">
+        <v>216</v>
+      </c>
+      <c r="K9" t="s">
+        <v>70</v>
+      </c>
+      <c r="M9" t="s">
+        <v>167</v>
+      </c>
+      <c r="P9" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G10" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" t="s">
+        <v>207</v>
+      </c>
+      <c r="G11" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>154</v>
+      </c>
+      <c r="F12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G12" t="s">
+        <v>219</v>
+      </c>
+      <c r="K12" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="D13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F13" t="s">
+        <v>209</v>
+      </c>
+      <c r="G13" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>223</v>
+      </c>
+      <c r="K16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G17" t="s">
+        <v>224</v>
+      </c>
+      <c r="K17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G18" t="s">
+        <v>225</v>
+      </c>
+      <c r="K18" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G19" t="s">
+        <v>226</v>
+      </c>
+      <c r="K19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G20" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G21" t="s">
+        <v>228</v>
+      </c>
+      <c r="K21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G22" t="s">
         <v>229</v>
       </c>
-      <c r="G4" t="s">
-        <v>240</v>
-      </c>
-      <c r="M4" t="s">
-        <v>76</v>
-      </c>
-      <c r="N4" t="s">
-        <v>204</v>
-      </c>
-      <c r="O4" t="s">
-        <v>206</v>
-      </c>
-      <c r="P4" t="s">
-        <v>207</v>
-      </c>
-      <c r="R4" t="s">
-        <v>209</v>
-      </c>
-      <c r="S4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="K22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G23" t="s">
         <v>230</v>
       </c>
-      <c r="G5" t="s">
-        <v>200</v>
-      </c>
-      <c r="O5" t="s">
-        <v>213</v>
-      </c>
-      <c r="R5" t="s">
-        <v>210</v>
-      </c>
-      <c r="S5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G24" t="s">
         <v>231</v>
       </c>
-      <c r="G6" t="s">
-        <v>241</v>
-      </c>
-      <c r="R6" t="s">
-        <v>199</v>
-      </c>
-      <c r="S6" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C7" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" t="s">
-        <v>165</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="K24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G25" t="s">
         <v>232</v>
       </c>
-      <c r="G7" t="s">
-        <v>242</v>
-      </c>
-      <c r="R7" t="s">
-        <v>198</v>
-      </c>
-      <c r="S7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C8" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="26" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G26" t="s">
         <v>233</v>
       </c>
-      <c r="G8" t="s">
-        <v>243</v>
-      </c>
-      <c r="R8" t="s">
-        <v>211</v>
-      </c>
-      <c r="S8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C9" t="s">
-        <v>174</v>
-      </c>
-      <c r="D9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" t="s">
-        <v>244</v>
-      </c>
-      <c r="R9" t="s">
-        <v>197</v>
-      </c>
-      <c r="S9" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>175</v>
-      </c>
-      <c r="D10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="27" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G27" t="s">
         <v>234</v>
       </c>
-      <c r="G10" t="s">
-        <v>245</v>
-      </c>
-      <c r="S10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="C11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="28" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G28" t="s">
         <v>235</v>
       </c>
-      <c r="G11" t="s">
-        <v>246</v>
-      </c>
-      <c r="S11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D12" t="s">
-        <v>178</v>
-      </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="29" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G29" t="s">
         <v>236</v>
       </c>
-      <c r="G12" t="s">
-        <v>247</v>
-      </c>
-      <c r="S12" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="D13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="30" spans="7:11" x14ac:dyDescent="0.35">
+      <c r="G30" t="s">
         <v>237</v>
       </c>
-      <c r="G13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="G14" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="G15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="G16" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G17" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G19" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G20" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G21" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G22" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="23" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G23" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G25" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="26" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G26" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="27" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G27" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="28" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G28" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="30" spans="7:7" x14ac:dyDescent="0.35">
-      <c r="G30" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="31:31" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AE44"/>
+    </row>
+    <row r="49" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AE49"/>
+    </row>
+    <row r="50" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="J50" t="s">
+        <v>129</v>
+      </c>
+      <c r="K50" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE50"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.35">
       <c r="H51" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="I51" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="J51" t="s">
-        <v>158</v>
-      </c>
-      <c r="K51" t="s">
-        <v>151</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+        <v>127</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.35">
       <c r="H52" t="s">
-        <v>148</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>152</v>
+        <v>134</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J52" t="s">
+        <v>130</v>
       </c>
       <c r="K52" t="s">
-        <v>154</v>
-      </c>
-      <c r="L52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="I53" t="s">
+        <v>129</v>
+      </c>
+      <c r="J53" t="s">
+        <v>131</v>
+      </c>
       <c r="K53" t="s">
-        <v>155</v>
-      </c>
-      <c r="L53" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AE57"/>
+    </row>
+    <row r="58" spans="1:31" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AE58"/>
+    </row>
+    <row r="59" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="60" spans="1:31" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="AE60"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B61" t="s">
-        <v>267</v>
+        <v>239</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="E61" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="F61" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="G61" t="s">
-        <v>273</v>
-      </c>
-      <c r="M61" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+      <c r="L61" t="s">
+        <v>246</v>
+      </c>
+      <c r="R61" t="s">
+        <v>211</v>
+      </c>
+      <c r="S61" t="s">
+        <v>255</v>
+      </c>
+      <c r="T61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>50</v>
       </c>
       <c r="D62" t="s">
-        <v>268</v>
+        <v>240</v>
       </c>
       <c r="F62" t="s">
         <v>54</v>
@@ -3160,165 +4847,798 @@
       <c r="G62" t="s">
         <v>54</v>
       </c>
-      <c r="M62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L62" t="s">
+        <v>69</v>
+      </c>
+      <c r="R62" t="s">
+        <v>252</v>
+      </c>
+      <c r="S62" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31" x14ac:dyDescent="0.35">
       <c r="F63" t="s">
+        <v>243</v>
+      </c>
+      <c r="G63" t="s">
+        <v>243</v>
+      </c>
+      <c r="L63" t="s">
+        <v>156</v>
+      </c>
+      <c r="R63" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="F64" t="s">
+        <v>244</v>
+      </c>
+      <c r="G64" t="s">
+        <v>244</v>
+      </c>
+      <c r="L64" t="s">
+        <v>247</v>
+      </c>
+      <c r="R64" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="L65" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="74" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="R74" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>261</v>
+      </c>
+      <c r="C75" t="s">
+        <v>149</v>
+      </c>
+      <c r="R75" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>262</v>
+      </c>
+      <c r="R76" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="R77" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.35">
+      <c r="R78" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="80" spans="2:18" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H80" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J80" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="K80" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="8:20" x14ac:dyDescent="0.35">
+      <c r="H81" t="s">
+        <v>134</v>
+      </c>
+      <c r="I81" t="s">
+        <v>261</v>
+      </c>
+      <c r="J81" t="s">
+        <v>270</v>
+      </c>
+      <c r="K81" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="82" spans="8:20" x14ac:dyDescent="0.35">
+      <c r="H82" t="s">
+        <v>269</v>
+      </c>
+      <c r="I82" t="s">
+        <v>50</v>
+      </c>
+      <c r="J82" t="s">
         <v>271</v>
       </c>
-      <c r="G63" t="s">
-        <v>271</v>
-      </c>
-      <c r="M63" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="F64" t="s">
+      <c r="K82" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="83" spans="8:20" ht="15" x14ac:dyDescent="0.4">
+      <c r="H83" t="s">
+        <v>67</v>
+      </c>
+      <c r="I83" t="s">
+        <v>262</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="84" spans="8:20" x14ac:dyDescent="0.35">
+      <c r="H84" t="s">
+        <v>87</v>
+      </c>
+      <c r="I84" t="s">
+        <v>279</v>
+      </c>
+      <c r="J84" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="85" spans="8:20" ht="15" x14ac:dyDescent="0.4">
+      <c r="H85" t="s">
+        <v>64</v>
+      </c>
+      <c r="I85" t="s">
+        <v>137</v>
+      </c>
+      <c r="J85" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="G64" t="s">
+    </row>
+    <row r="86" spans="8:20" ht="15" x14ac:dyDescent="0.4">
+      <c r="H86" t="s">
+        <v>66</v>
+      </c>
+      <c r="I86" t="s">
+        <v>280</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="8:20" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="H87" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="J87" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="M64" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="65" spans="13:13" x14ac:dyDescent="0.35">
-      <c r="M65" t="s">
-        <v>276</v>
+      <c r="K87" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="L87" s="7"/>
+    </row>
+    <row r="89" spans="8:20" x14ac:dyDescent="0.35">
+      <c r="T89" s="6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="90" spans="8:20" x14ac:dyDescent="0.35">
+      <c r="T90" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" spans="8:20" x14ac:dyDescent="0.35">
+      <c r="T91" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="92" spans="8:20" x14ac:dyDescent="0.35">
+      <c r="T92" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="8:20" x14ac:dyDescent="0.35">
+      <c r="T93" s="5" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0234DA1-0B44-4F27-B992-4E9169972F19}">
-  <dimension ref="A1:B62"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>292</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>303</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>346</v>
+      </c>
+      <c r="D3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>345</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="G7" t="s">
+        <v>308</v>
+      </c>
+      <c r="H7" t="s">
+        <v>294</v>
+      </c>
+      <c r="I7" t="s">
+        <v>304</v>
+      </c>
+      <c r="J7" t="s">
+        <v>353</v>
+      </c>
+      <c r="K7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M7" t="s">
+        <v>296</v>
+      </c>
+      <c r="N7" t="s">
+        <v>297</v>
+      </c>
+      <c r="O7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>352</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="G8" t="s">
+        <v>308</v>
+      </c>
+      <c r="H8" t="s">
+        <v>310</v>
+      </c>
+      <c r="I8" t="s">
+        <v>304</v>
+      </c>
+      <c r="J8" t="s">
+        <v>353</v>
+      </c>
+      <c r="K8" t="s">
+        <v>309</v>
+      </c>
+      <c r="L8" t="s">
+        <v>301</v>
+      </c>
+      <c r="M8" t="s">
+        <v>311</v>
+      </c>
+      <c r="N8" t="s">
+        <v>297</v>
+      </c>
+      <c r="O8" t="s">
+        <v>296</v>
+      </c>
+      <c r="P8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>174</v>
+        <v>354</v>
       </c>
       <c r="B9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+        <v>363</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="G9" t="s">
+        <v>312</v>
+      </c>
+      <c r="H9" t="s">
+        <v>308</v>
+      </c>
+      <c r="I9" t="s">
+        <v>313</v>
+      </c>
+      <c r="J9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K9" t="s">
+        <v>314</v>
+      </c>
+      <c r="L9" t="s">
+        <v>299</v>
+      </c>
+      <c r="M9" t="s">
+        <v>300</v>
+      </c>
+      <c r="N9" t="s">
+        <v>311</v>
+      </c>
+      <c r="O9" t="s">
+        <v>297</v>
+      </c>
+      <c r="P9" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>355</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10" t="s">
+        <v>317</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" t="s">
+        <v>312</v>
+      </c>
+      <c r="H10" t="s">
+        <v>316</v>
+      </c>
+      <c r="I10" t="s">
+        <v>318</v>
+      </c>
+      <c r="J10" t="s">
+        <v>308</v>
+      </c>
+      <c r="K10" t="s">
+        <v>313</v>
+      </c>
+      <c r="L10" t="s">
+        <v>304</v>
+      </c>
+      <c r="M10" t="s">
+        <v>299</v>
+      </c>
+      <c r="N10" t="s">
+        <v>300</v>
+      </c>
+      <c r="O10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>176</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>170</v>
-      </c>
-      <c r="B61" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B62" t="s">
-        <v>268</v>
+        <v>320</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="F11" t="s">
+        <v>312</v>
+      </c>
+      <c r="G11" t="s">
+        <v>321</v>
+      </c>
+      <c r="H11" t="s">
+        <v>322</v>
+      </c>
+      <c r="I11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="F12" t="s">
+        <v>312</v>
+      </c>
+      <c r="G12" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12" t="s">
+        <v>316</v>
+      </c>
+      <c r="I12" t="s">
+        <v>318</v>
+      </c>
+      <c r="J12" t="s">
+        <v>305</v>
+      </c>
+      <c r="K12" t="s">
+        <v>313</v>
+      </c>
+      <c r="L12" t="s">
+        <v>325</v>
+      </c>
+      <c r="M12" t="s">
+        <v>326</v>
+      </c>
+      <c r="N12" t="s">
+        <v>319</v>
+      </c>
+      <c r="O12" t="s">
+        <v>327</v>
+      </c>
+      <c r="P12" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="E13" t="s">
+        <v>321</v>
+      </c>
+      <c r="F13" t="s">
+        <v>304</v>
+      </c>
+      <c r="G13" t="s">
+        <v>314</v>
+      </c>
+      <c r="H13" t="s">
+        <v>330</v>
+      </c>
+      <c r="I13" t="s">
+        <v>319</v>
+      </c>
+      <c r="J13" t="s">
+        <v>327</v>
+      </c>
+      <c r="K13" t="s">
+        <v>328</v>
+      </c>
+      <c r="L13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="E14" t="s">
+        <v>312</v>
+      </c>
+      <c r="F14" t="s">
+        <v>331</v>
+      </c>
+      <c r="G14" t="s">
+        <v>299</v>
+      </c>
+      <c r="H14" t="s">
+        <v>302</v>
+      </c>
+      <c r="I14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>362</v>
+      </c>
+      <c r="B17" t="s">
+        <v>323</v>
+      </c>
+      <c r="D17" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="F17" t="s">
+        <v>312</v>
+      </c>
+      <c r="G17" t="s">
+        <v>308</v>
+      </c>
+      <c r="H17" t="s">
+        <v>342</v>
+      </c>
+      <c r="I17" t="s">
+        <v>343</v>
+      </c>
+      <c r="J17" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20" t="s">
+        <v>333</v>
+      </c>
+      <c r="D20" t="s">
+        <v>334</v>
+      </c>
+      <c r="E20" t="s">
+        <v>335</v>
+      </c>
+      <c r="F20" t="s">
+        <v>304</v>
+      </c>
+      <c r="G20" t="s">
+        <v>299</v>
+      </c>
+      <c r="H20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I20" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>360</v>
+      </c>
+      <c r="B21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D21" t="s">
+        <v>337</v>
+      </c>
+      <c r="E21" t="s">
+        <v>334</v>
+      </c>
+      <c r="F21" t="s">
+        <v>338</v>
+      </c>
+      <c r="G21" t="s">
+        <v>335</v>
+      </c>
+      <c r="H21" t="s">
+        <v>339</v>
+      </c>
+      <c r="I21" t="s">
+        <v>340</v>
+      </c>
+      <c r="J21" t="s">
+        <v>341</v>
+      </c>
+      <c r="K21" t="s">
+        <v>306</v>
+      </c>
+      <c r="L21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>367</v>
+      </c>
+      <c r="B24" t="s">
+        <v>369</v>
+      </c>
+      <c r="C24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>368</v>
+      </c>
+      <c r="B25" t="s">
+        <v>372</v>
+      </c>
+      <c r="C25" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>373</v>
+      </c>
+      <c r="B26" t="s">
+        <v>374</v>
+      </c>
+      <c r="C26" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>376</v>
+      </c>
+      <c r="B27" t="s">
+        <v>377</v>
+      </c>
+      <c r="C27" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
